--- a/mbs-perturbation/bloated/svm/nearmiss/bloated-svm-default-nearmiss-results.xlsx
+++ b/mbs-perturbation/bloated/svm/nearmiss/bloated-svm-default-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7058823529411765</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8165680473372782</v>
+        <v>0.6923076923076923</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.863905325443787</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.375</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1428571428571429</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4674556213017751</v>
+        <v>0.6213017751479289</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.9230769230769231</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1428571428571429</v>
+        <v>0.8181818181818181</v>
       </c>
       <c r="E6" t="n">
-        <v>0.467948717948718</v>
+        <v>0.9423076923076924</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7142857142857142</v>
+        <v>0.515</v>
       </c>
       <c r="C7" t="n">
         <v>0.4153846153846154</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3983193277310925</v>
+        <v>0.4485987696514012</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6734714003944774</v>
+        <v>0.8085798816568047</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/bloated/svm/nearmiss/bloated-svm-default-nearmiss-results.xlsx
+++ b/mbs-perturbation/bloated/svm/nearmiss/bloated-svm-default-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.6666666666666667</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9285714285714286</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="E3" t="n">
-        <v>0.863905325443787</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.4</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6213017751479289</v>
+        <v>0.6287878787878788</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.7613636363636362</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8181818181818181</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9423076923076924</v>
+        <v>0.7348484848484849</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.515</v>
+        <v>0.52</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4153846153846154</v>
+        <v>0.3712121212121212</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4485987696514012</v>
+        <v>0.4070619235836627</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8085798816568047</v>
+        <v>0.7583333333333333</v>
       </c>
     </row>
   </sheetData>
